--- a/story/Activity Story 活动剧情/act4d0 Operational Intelligence 战地秘闻 戦地の逸話/level_act4d0_st07.xlsx
+++ b/story/Activity Story 活动剧情/act4d0 Operational Intelligence 战地秘闻 戦地の逸話/level_act4d0_st07.xlsx
@@ -1372,7 +1372,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"] Last time you called yourself a caring person, you set up a facility to broadcast "Closure's Midnight Video Market" at twelve o'clock for three months straight.
+    <t xml:space="preserve">[name="Kal'tsit"] Last time you called yourself a caring person, you set up a facility to broadcast 'Closure's Midnight Video Market' at twelve o'clock for three months straight.
 </t>
   </si>
   <si>
@@ -1660,7 +1660,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Closure"] Did you hear that, Kal'tsit? She called me "Miss!" Oh what a good little girl...
+    <t xml:space="preserve">[name="Closure"] Did you hear that, Kal'tsit? She called me 'Miss!' Oh what a good little girl...
 </t>
   </si>
   <si>
@@ -1700,7 +1700,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"] It's one of the steps in the "Acquisition and Cultivation Procedures for Infected Personnel."
+    <t xml:space="preserve">[name="Kal'tsit"] It's one of the steps in the 'Acquisition and Cultivation Procedures for Infected Personnel.'
 </t>
   </si>
   <si>
@@ -1784,7 +1784,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Closure"] Huh. "Furry Friends Collection. 12 different furry friends to..." Wow, secret level! Awesome!
+    <t xml:space="preserve">[name="Closure"] Huh. 'Furry Friends Collection. 12 different furry friends to...' Wow, secret level! Awesome!
 </t>
   </si>
   <si>
@@ -2064,7 +2064,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="켈시"] 와파린은 이미 글렀어. 거기에 흡혈귀에 대한 {@nickname} 박사의 오해까지 더해진다면, 카즈델 쪽 일은 어쩔 수 없이 무기한 연기될 거야.
+    <t xml:space="preserve">[name="켈시"] 와파린은 이미 글렀어. 거기에 뱀파이어에 대한 {@nickname} 박사의 오해까지 더해진다면, 카즈델 쪽 일은 어쩔 수 없이 무기한 연기될 거야.
 </t>
   </si>
   <si>
@@ -2420,7 +2420,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="클로저"] 흡혈귀를 얕보지 마. 난 당연히 보이지.
+    <t xml:space="preserve">[name="클로저"] 뱀파이어를 얕보지 마. 난 당연히 보이지.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act4d0 Operational Intelligence 战地秘闻 戦地の逸話/level_act4d0_st07.xlsx
+++ b/story/Activity Story 活动剧情/act4d0 Operational Intelligence 战地秘闻 戦地の逸話/level_act4d0_st07.xlsx
@@ -1348,7 +1348,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">11:30 A.M. - Overcast
+    <t xml:space="preserve">11:30 A.M. \ Overcast
 </t>
   </si>
   <si>
